--- a/Data/CTtests-arrowgobies_2019Lab2021field.xlsx
+++ b/Data/CTtests-arrowgobies_2019Lab2021field.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristakraskura/Github_repositories/KK_etal_gobies_tempVar_tempTol/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55CC624-3043-FA4D-8B1A-F7E2F6E97954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B9C256-5679-2549-89A4-A38DD75C5DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lab-ALL tests" sheetId="19" r:id="rId1"/>
@@ -652,9 +652,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D0870C-6093-FC42-B29E-1113A9012FFD}">
   <dimension ref="A1:W501"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="139" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q228" sqref="Q228"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -12320,7 +12320,7 @@
         <v>50</v>
       </c>
       <c r="R148">
-        <v>21.21</v>
+        <v>12.88</v>
       </c>
       <c r="S148" s="11">
         <f t="shared" si="19"/>

--- a/Data/CTtests-arrowgobies_2019Lab2021field.xlsx
+++ b/Data/CTtests-arrowgobies_2019Lab2021field.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristakraskura/Github_repositories/KK_etal_gobies_tempVar_tempTol/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B9C256-5679-2549-89A4-A38DD75C5DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2FD246-30BD-5740-8B51-D959EDCC9BC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5896" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5621" uniqueCount="88">
   <si>
     <t>Date</t>
   </si>
@@ -652,9 +652,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D0870C-6093-FC42-B29E-1113A9012FFD}">
   <dimension ref="A1:W501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="139" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O501" sqref="O1:O501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -18549,8 +18549,9 @@
       <c r="N227" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O227" s="4" t="s">
-        <v>29</v>
+      <c r="O227" s="24" t="str">
+        <f>D227</f>
+        <v>field1</v>
       </c>
       <c r="P227" s="4" t="str">
         <f>Q227</f>
@@ -18622,11 +18623,12 @@
       <c r="N228" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O228" s="4" t="s">
-        <v>29</v>
+      <c r="O228" s="24" t="str">
+        <f t="shared" ref="O228:O291" si="33">D228</f>
+        <v>field1</v>
       </c>
       <c r="P228" s="4" t="str">
-        <f t="shared" ref="P228:P291" si="33">Q228</f>
+        <f t="shared" ref="P228:P291" si="34">Q228</f>
         <v>FIELD</v>
       </c>
       <c r="Q228" s="4" t="s">
@@ -18695,11 +18697,12 @@
       <c r="N229" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O229" s="4" t="s">
-        <v>29</v>
+      <c r="O229" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field1</v>
       </c>
       <c r="P229" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q229" s="4" t="s">
@@ -18768,11 +18771,12 @@
       <c r="N230" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O230" s="4" t="s">
-        <v>29</v>
+      <c r="O230" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field1</v>
       </c>
       <c r="P230" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q230" s="4" t="s">
@@ -18841,11 +18845,12 @@
       <c r="N231" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O231" s="4" t="s">
-        <v>29</v>
+      <c r="O231" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field1</v>
       </c>
       <c r="P231" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q231" s="4" t="s">
@@ -18914,11 +18919,12 @@
       <c r="N232" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O232" s="4" t="s">
-        <v>29</v>
+      <c r="O232" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field1</v>
       </c>
       <c r="P232" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q232" s="4" t="s">
@@ -18987,11 +18993,12 @@
       <c r="N233" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O233" s="4" t="s">
-        <v>29</v>
+      <c r="O233" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field1</v>
       </c>
       <c r="P233" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q233" s="4" t="s">
@@ -19060,11 +19067,12 @@
       <c r="N234" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O234" s="4" t="s">
-        <v>29</v>
+      <c r="O234" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field1</v>
       </c>
       <c r="P234" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q234" s="4" t="s">
@@ -19133,11 +19141,12 @@
       <c r="N235" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O235" s="4" t="s">
-        <v>29</v>
+      <c r="O235" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field1</v>
       </c>
       <c r="P235" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q235" s="4" t="s">
@@ -19206,11 +19215,12 @@
       <c r="N236" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O236" s="4" t="s">
-        <v>29</v>
+      <c r="O236" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field1</v>
       </c>
       <c r="P236" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q236" s="4" t="s">
@@ -19279,11 +19289,12 @@
       <c r="N237" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O237" s="4" t="s">
-        <v>29</v>
+      <c r="O237" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field1</v>
       </c>
       <c r="P237" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q237" s="4" t="s">
@@ -19352,11 +19363,12 @@
       <c r="N238" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O238" s="4" t="s">
-        <v>29</v>
+      <c r="O238" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field1</v>
       </c>
       <c r="P238" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q238" s="4" t="s">
@@ -19425,11 +19437,12 @@
       <c r="N239" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O239" s="4" t="s">
-        <v>29</v>
+      <c r="O239" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field1</v>
       </c>
       <c r="P239" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q239" s="4" t="s">
@@ -19498,11 +19511,12 @@
       <c r="N240" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O240" s="4" t="s">
-        <v>29</v>
+      <c r="O240" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field1</v>
       </c>
       <c r="P240" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q240" s="4" t="s">
@@ -19571,11 +19585,12 @@
       <c r="N241" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O241" s="4" t="s">
-        <v>29</v>
+      <c r="O241" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field2</v>
       </c>
       <c r="P241" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q241" s="4" t="s">
@@ -19644,11 +19659,12 @@
       <c r="N242" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O242" s="4" t="s">
-        <v>29</v>
+      <c r="O242" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field2</v>
       </c>
       <c r="P242" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q242" s="4" t="s">
@@ -19717,11 +19733,12 @@
       <c r="N243" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O243" s="4" t="s">
-        <v>29</v>
+      <c r="O243" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field2</v>
       </c>
       <c r="P243" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q243" s="4" t="s">
@@ -19790,11 +19807,12 @@
       <c r="N244" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O244" s="4" t="s">
-        <v>29</v>
+      <c r="O244" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field2</v>
       </c>
       <c r="P244" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q244" s="4" t="s">
@@ -19863,11 +19881,12 @@
       <c r="N245" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O245" s="4" t="s">
-        <v>29</v>
+      <c r="O245" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field2</v>
       </c>
       <c r="P245" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q245" s="4" t="s">
@@ -19936,11 +19955,12 @@
       <c r="N246" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O246" s="4" t="s">
-        <v>29</v>
+      <c r="O246" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field2</v>
       </c>
       <c r="P246" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q246" s="4" t="s">
@@ -20009,11 +20029,12 @@
       <c r="N247" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O247" s="4" t="s">
-        <v>29</v>
+      <c r="O247" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field2</v>
       </c>
       <c r="P247" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q247" s="4" t="s">
@@ -20082,11 +20103,12 @@
       <c r="N248" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O248" s="4" t="s">
-        <v>29</v>
+      <c r="O248" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field2</v>
       </c>
       <c r="P248" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q248" s="4" t="s">
@@ -20155,11 +20177,12 @@
       <c r="N249" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O249" s="4" t="s">
-        <v>29</v>
+      <c r="O249" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field2</v>
       </c>
       <c r="P249" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q249" s="4" t="s">
@@ -20228,11 +20251,12 @@
       <c r="N250" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O250" s="4" t="s">
-        <v>29</v>
+      <c r="O250" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field2</v>
       </c>
       <c r="P250" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q250" s="4" t="s">
@@ -20301,11 +20325,12 @@
       <c r="N251" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O251" s="4" t="s">
-        <v>29</v>
+      <c r="O251" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field2</v>
       </c>
       <c r="P251" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q251" s="4" t="s">
@@ -20374,11 +20399,12 @@
       <c r="N252" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O252" s="4" t="s">
-        <v>29</v>
+      <c r="O252" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field2</v>
       </c>
       <c r="P252" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q252" s="4" t="s">
@@ -20447,11 +20473,12 @@
       <c r="N253" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O253" s="4" t="s">
-        <v>29</v>
+      <c r="O253" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field2</v>
       </c>
       <c r="P253" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q253" s="4" t="s">
@@ -20520,11 +20547,12 @@
       <c r="N254" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O254" s="4" t="s">
-        <v>29</v>
+      <c r="O254" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field2</v>
       </c>
       <c r="P254" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q254" s="4" t="s">
@@ -20593,11 +20621,12 @@
       <c r="N255" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O255" s="4" t="s">
-        <v>29</v>
+      <c r="O255" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field2</v>
       </c>
       <c r="P255" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q255" s="4" t="s">
@@ -20666,11 +20695,12 @@
       <c r="N256" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O256" s="4" t="s">
-        <v>29</v>
+      <c r="O256" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field2</v>
       </c>
       <c r="P256" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q256" s="4" t="s">
@@ -20739,11 +20769,12 @@
       <c r="N257" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O257" s="4" t="s">
-        <v>29</v>
+      <c r="O257" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field2</v>
       </c>
       <c r="P257" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q257" s="4" t="s">
@@ -20812,11 +20843,12 @@
       <c r="N258" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O258" s="4" t="s">
-        <v>29</v>
+      <c r="O258" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field2</v>
       </c>
       <c r="P258" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q258" s="4" t="s">
@@ -20885,11 +20917,12 @@
       <c r="N259" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O259" s="4" t="s">
-        <v>29</v>
+      <c r="O259" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field2</v>
       </c>
       <c r="P259" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q259" s="4" t="s">
@@ -20958,11 +20991,12 @@
       <c r="N260" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O260" s="4" t="s">
-        <v>29</v>
+      <c r="O260" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field2</v>
       </c>
       <c r="P260" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q260" s="4" t="s">
@@ -21031,11 +21065,12 @@
       <c r="N261" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O261" s="4" t="s">
-        <v>29</v>
+      <c r="O261" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field2</v>
       </c>
       <c r="P261" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q261" s="4" t="s">
@@ -21104,11 +21139,12 @@
       <c r="N262" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O262" s="4" t="s">
-        <v>29</v>
+      <c r="O262" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field2</v>
       </c>
       <c r="P262" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q262" s="4" t="s">
@@ -21177,11 +21213,12 @@
       <c r="N263" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O263" s="4" t="s">
-        <v>29</v>
+      <c r="O263" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field2</v>
       </c>
       <c r="P263" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q263" s="4" t="s">
@@ -21250,11 +21287,12 @@
       <c r="N264" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O264" s="4" t="s">
-        <v>29</v>
+      <c r="O264" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field3</v>
       </c>
       <c r="P264" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q264" s="4" t="s">
@@ -21323,11 +21361,12 @@
       <c r="N265" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O265" s="4" t="s">
-        <v>29</v>
+      <c r="O265" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field3</v>
       </c>
       <c r="P265" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q265" s="4" t="s">
@@ -21396,11 +21435,12 @@
       <c r="N266" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O266" s="4" t="s">
-        <v>29</v>
+      <c r="O266" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field3</v>
       </c>
       <c r="P266" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q266" s="4" t="s">
@@ -21469,11 +21509,12 @@
       <c r="N267" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O267" s="4" t="s">
-        <v>29</v>
+      <c r="O267" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field3</v>
       </c>
       <c r="P267" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q267" s="4" t="s">
@@ -21542,11 +21583,12 @@
       <c r="N268" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O268" s="4" t="s">
-        <v>29</v>
+      <c r="O268" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field3</v>
       </c>
       <c r="P268" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q268" s="4" t="s">
@@ -21615,11 +21657,12 @@
       <c r="N269" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O269" s="4" t="s">
-        <v>29</v>
+      <c r="O269" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field3</v>
       </c>
       <c r="P269" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q269" s="4" t="s">
@@ -21688,11 +21731,12 @@
       <c r="N270" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O270" s="4" t="s">
-        <v>29</v>
+      <c r="O270" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field3</v>
       </c>
       <c r="P270" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q270" s="4" t="s">
@@ -21761,11 +21805,12 @@
       <c r="N271" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O271" s="4" t="s">
-        <v>29</v>
+      <c r="O271" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field3</v>
       </c>
       <c r="P271" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q271" s="4" t="s">
@@ -21834,11 +21879,12 @@
       <c r="N272" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O272" s="4" t="s">
-        <v>29</v>
+      <c r="O272" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field3</v>
       </c>
       <c r="P272" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q272" s="4" t="s">
@@ -21907,11 +21953,12 @@
       <c r="N273" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O273" s="4" t="s">
-        <v>29</v>
+      <c r="O273" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field3</v>
       </c>
       <c r="P273" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q273" s="4" t="s">
@@ -21980,11 +22027,12 @@
       <c r="N274" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O274" s="4" t="s">
-        <v>29</v>
+      <c r="O274" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field3</v>
       </c>
       <c r="P274" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q274" s="4" t="s">
@@ -22053,11 +22101,12 @@
       <c r="N275" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O275" s="4" t="s">
-        <v>29</v>
+      <c r="O275" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field3</v>
       </c>
       <c r="P275" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q275" s="4" t="s">
@@ -22126,11 +22175,12 @@
       <c r="N276" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O276" s="4" t="s">
-        <v>29</v>
+      <c r="O276" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field3</v>
       </c>
       <c r="P276" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q276" s="4" t="s">
@@ -22199,11 +22249,12 @@
       <c r="N277" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O277" s="4" t="s">
-        <v>29</v>
+      <c r="O277" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field3</v>
       </c>
       <c r="P277" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q277" s="4" t="s">
@@ -22272,11 +22323,12 @@
       <c r="N278" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O278" s="4" t="s">
-        <v>29</v>
+      <c r="O278" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field3</v>
       </c>
       <c r="P278" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q278" s="4" t="s">
@@ -22345,11 +22397,12 @@
       <c r="N279" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O279" s="4" t="s">
-        <v>29</v>
+      <c r="O279" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field3</v>
       </c>
       <c r="P279" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q279" s="4" t="s">
@@ -22418,11 +22471,12 @@
       <c r="N280" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O280" s="4" t="s">
-        <v>29</v>
+      <c r="O280" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field3</v>
       </c>
       <c r="P280" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q280" s="4" t="s">
@@ -22491,11 +22545,12 @@
       <c r="N281" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O281" s="4" t="s">
-        <v>29</v>
+      <c r="O281" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field3</v>
       </c>
       <c r="P281" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q281" s="4" t="s">
@@ -22564,11 +22619,12 @@
       <c r="N282" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O282" s="4" t="s">
-        <v>29</v>
+      <c r="O282" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field3</v>
       </c>
       <c r="P282" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q282" s="4" t="s">
@@ -22637,11 +22693,12 @@
       <c r="N283" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O283" s="4" t="s">
-        <v>29</v>
+      <c r="O283" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field3</v>
       </c>
       <c r="P283" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q283" s="4" t="s">
@@ -22710,11 +22767,12 @@
       <c r="N284" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O284" s="4" t="s">
-        <v>29</v>
+      <c r="O284" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field3</v>
       </c>
       <c r="P284" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q284" s="4" t="s">
@@ -22783,11 +22841,12 @@
       <c r="N285" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O285" s="4" t="s">
-        <v>29</v>
+      <c r="O285" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field3</v>
       </c>
       <c r="P285" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q285" s="4" t="s">
@@ -22856,11 +22915,12 @@
       <c r="N286" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O286" s="4" t="s">
-        <v>29</v>
+      <c r="O286" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field3</v>
       </c>
       <c r="P286" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q286" s="4" t="s">
@@ -22929,11 +22989,12 @@
       <c r="N287" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O287" s="4" t="s">
-        <v>29</v>
+      <c r="O287" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field4</v>
       </c>
       <c r="P287" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q287" s="4" t="s">
@@ -23002,11 +23063,12 @@
       <c r="N288" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O288" s="4" t="s">
-        <v>29</v>
+      <c r="O288" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field4</v>
       </c>
       <c r="P288" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q288" s="4" t="s">
@@ -23075,11 +23137,12 @@
       <c r="N289" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O289" s="4" t="s">
-        <v>29</v>
+      <c r="O289" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field4</v>
       </c>
       <c r="P289" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q289" s="4" t="s">
@@ -23148,11 +23211,12 @@
       <c r="N290" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O290" s="4" t="s">
-        <v>29</v>
+      <c r="O290" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field4</v>
       </c>
       <c r="P290" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q290" s="4" t="s">
@@ -23191,7 +23255,7 @@
         <v>72</v>
       </c>
       <c r="E291" s="24" t="str">
-        <f t="shared" ref="E291:E354" si="34">CONCATENATE(Q291, "-", B291)</f>
+        <f t="shared" ref="E291:E354" si="35">CONCATENATE(Q291, "-", B291)</f>
         <v>FIELD-44386</v>
       </c>
       <c r="F291" s="2">
@@ -23221,11 +23285,12 @@
       <c r="N291" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O291" s="4" t="s">
-        <v>29</v>
+      <c r="O291" s="24" t="str">
+        <f t="shared" si="33"/>
+        <v>field4</v>
       </c>
       <c r="P291" s="4" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>FIELD</v>
       </c>
       <c r="Q291" s="4" t="s">
@@ -23264,7 +23329,7 @@
         <v>72</v>
       </c>
       <c r="E292" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44386</v>
       </c>
       <c r="F292" s="2">
@@ -23294,11 +23359,12 @@
       <c r="N292" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O292" s="4" t="s">
-        <v>29</v>
+      <c r="O292" s="24" t="str">
+        <f t="shared" ref="O292:O355" si="36">D292</f>
+        <v>field4</v>
       </c>
       <c r="P292" s="4" t="str">
-        <f t="shared" ref="P292:P355" si="35">Q292</f>
+        <f t="shared" ref="P292:P355" si="37">Q292</f>
         <v>FIELD</v>
       </c>
       <c r="Q292" s="4" t="s">
@@ -23337,7 +23403,7 @@
         <v>72</v>
       </c>
       <c r="E293" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44386</v>
       </c>
       <c r="F293" s="2">
@@ -23367,11 +23433,12 @@
       <c r="N293" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O293" s="4" t="s">
-        <v>29</v>
+      <c r="O293" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field4</v>
       </c>
       <c r="P293" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q293" s="4" t="s">
@@ -23410,7 +23477,7 @@
         <v>72</v>
       </c>
       <c r="E294" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44386</v>
       </c>
       <c r="F294" s="2">
@@ -23440,11 +23507,12 @@
       <c r="N294" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O294" s="4" t="s">
-        <v>29</v>
+      <c r="O294" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field4</v>
       </c>
       <c r="P294" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q294" s="4" t="s">
@@ -23483,7 +23551,7 @@
         <v>72</v>
       </c>
       <c r="E295" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44386</v>
       </c>
       <c r="F295" s="2">
@@ -23513,11 +23581,12 @@
       <c r="N295" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O295" s="4" t="s">
-        <v>29</v>
+      <c r="O295" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field4</v>
       </c>
       <c r="P295" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q295" s="4" t="s">
@@ -23556,7 +23625,7 @@
         <v>72</v>
       </c>
       <c r="E296" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44386</v>
       </c>
       <c r="F296" s="2">
@@ -23586,11 +23655,12 @@
       <c r="N296" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O296" s="4" t="s">
-        <v>29</v>
+      <c r="O296" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field4</v>
       </c>
       <c r="P296" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q296" s="4" t="s">
@@ -23629,7 +23699,7 @@
         <v>72</v>
       </c>
       <c r="E297" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44386</v>
       </c>
       <c r="F297" s="2">
@@ -23659,11 +23729,12 @@
       <c r="N297" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O297" s="4" t="s">
-        <v>29</v>
+      <c r="O297" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field4</v>
       </c>
       <c r="P297" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q297" s="4" t="s">
@@ -23702,7 +23773,7 @@
         <v>72</v>
       </c>
       <c r="E298" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44386</v>
       </c>
       <c r="F298" s="2">
@@ -23732,11 +23803,12 @@
       <c r="N298" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O298" s="4" t="s">
-        <v>29</v>
+      <c r="O298" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field4</v>
       </c>
       <c r="P298" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q298" s="4" t="s">
@@ -23775,7 +23847,7 @@
         <v>72</v>
       </c>
       <c r="E299" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44386</v>
       </c>
       <c r="F299" s="2">
@@ -23805,11 +23877,12 @@
       <c r="N299" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O299" s="4" t="s">
-        <v>29</v>
+      <c r="O299" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field4</v>
       </c>
       <c r="P299" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q299" s="4" t="s">
@@ -23848,7 +23921,7 @@
         <v>72</v>
       </c>
       <c r="E300" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44386</v>
       </c>
       <c r="F300" s="2">
@@ -23878,11 +23951,12 @@
       <c r="N300" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O300" s="4" t="s">
-        <v>29</v>
+      <c r="O300" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field4</v>
       </c>
       <c r="P300" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q300" s="4" t="s">
@@ -23921,7 +23995,7 @@
         <v>72</v>
       </c>
       <c r="E301" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44386</v>
       </c>
       <c r="F301" s="2">
@@ -23951,11 +24025,12 @@
       <c r="N301" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O301" s="4" t="s">
-        <v>29</v>
+      <c r="O301" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field4</v>
       </c>
       <c r="P301" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q301" s="4" t="s">
@@ -23994,7 +24069,7 @@
         <v>72</v>
       </c>
       <c r="E302" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44386</v>
       </c>
       <c r="F302" s="2">
@@ -24024,11 +24099,12 @@
       <c r="N302" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O302" s="4" t="s">
-        <v>29</v>
+      <c r="O302" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field4</v>
       </c>
       <c r="P302" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q302" s="4" t="s">
@@ -24067,7 +24143,7 @@
         <v>72</v>
       </c>
       <c r="E303" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44386</v>
       </c>
       <c r="F303" s="2">
@@ -24097,11 +24173,12 @@
       <c r="N303" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O303" s="4" t="s">
-        <v>29</v>
+      <c r="O303" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field4</v>
       </c>
       <c r="P303" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q303" s="4" t="s">
@@ -24140,7 +24217,7 @@
         <v>72</v>
       </c>
       <c r="E304" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44386</v>
       </c>
       <c r="F304" s="2">
@@ -24170,11 +24247,12 @@
       <c r="N304" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O304" s="4" t="s">
-        <v>29</v>
+      <c r="O304" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field4</v>
       </c>
       <c r="P304" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q304" s="4" t="s">
@@ -24213,7 +24291,7 @@
         <v>73</v>
       </c>
       <c r="E305" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F305" s="2">
@@ -24243,11 +24321,12 @@
       <c r="N305" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O305" s="4" t="s">
-        <v>29</v>
+      <c r="O305" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field5</v>
       </c>
       <c r="P305" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q305" s="4" t="s">
@@ -24286,7 +24365,7 @@
         <v>73</v>
       </c>
       <c r="E306" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F306" s="2">
@@ -24316,11 +24395,12 @@
       <c r="N306" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O306" s="4" t="s">
-        <v>29</v>
+      <c r="O306" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field5</v>
       </c>
       <c r="P306" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q306" s="4" t="s">
@@ -24359,7 +24439,7 @@
         <v>73</v>
       </c>
       <c r="E307" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F307" s="2">
@@ -24389,11 +24469,12 @@
       <c r="N307" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O307" s="4" t="s">
-        <v>29</v>
+      <c r="O307" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field5</v>
       </c>
       <c r="P307" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q307" s="4" t="s">
@@ -24432,7 +24513,7 @@
         <v>73</v>
       </c>
       <c r="E308" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F308" s="2">
@@ -24462,11 +24543,12 @@
       <c r="N308" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O308" s="4" t="s">
-        <v>29</v>
+      <c r="O308" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field5</v>
       </c>
       <c r="P308" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q308" s="4" t="s">
@@ -24505,7 +24587,7 @@
         <v>73</v>
       </c>
       <c r="E309" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F309" s="2">
@@ -24535,11 +24617,12 @@
       <c r="N309" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O309" s="4" t="s">
-        <v>29</v>
+      <c r="O309" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field5</v>
       </c>
       <c r="P309" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q309" s="4" t="s">
@@ -24578,7 +24661,7 @@
         <v>73</v>
       </c>
       <c r="E310" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F310" s="2">
@@ -24608,11 +24691,12 @@
       <c r="N310" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O310" s="4" t="s">
-        <v>29</v>
+      <c r="O310" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field5</v>
       </c>
       <c r="P310" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q310" s="4" t="s">
@@ -24651,7 +24735,7 @@
         <v>73</v>
       </c>
       <c r="E311" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F311" s="2">
@@ -24681,11 +24765,12 @@
       <c r="N311" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O311" s="4" t="s">
-        <v>29</v>
+      <c r="O311" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field5</v>
       </c>
       <c r="P311" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q311" s="4" t="s">
@@ -24724,7 +24809,7 @@
         <v>73</v>
       </c>
       <c r="E312" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F312" s="2">
@@ -24754,11 +24839,12 @@
       <c r="N312" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O312" s="4" t="s">
-        <v>29</v>
+      <c r="O312" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field5</v>
       </c>
       <c r="P312" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q312" s="4" t="s">
@@ -24797,7 +24883,7 @@
         <v>73</v>
       </c>
       <c r="E313" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F313" s="2">
@@ -24827,11 +24913,12 @@
       <c r="N313" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O313" s="4" t="s">
-        <v>29</v>
+      <c r="O313" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field5</v>
       </c>
       <c r="P313" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q313" s="4" t="s">
@@ -24870,7 +24957,7 @@
         <v>73</v>
       </c>
       <c r="E314" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F314" s="2">
@@ -24900,11 +24987,12 @@
       <c r="N314" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O314" s="4" t="s">
-        <v>29</v>
+      <c r="O314" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field5</v>
       </c>
       <c r="P314" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q314" s="4" t="s">
@@ -24943,7 +25031,7 @@
         <v>73</v>
       </c>
       <c r="E315" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F315" s="2">
@@ -24973,11 +25061,12 @@
       <c r="N315" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O315" s="4" t="s">
-        <v>29</v>
+      <c r="O315" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field5</v>
       </c>
       <c r="P315" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q315" s="4" t="s">
@@ -25016,7 +25105,7 @@
         <v>73</v>
       </c>
       <c r="E316" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F316" s="2">
@@ -25046,11 +25135,12 @@
       <c r="N316" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O316" s="4" t="s">
-        <v>29</v>
+      <c r="O316" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field5</v>
       </c>
       <c r="P316" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q316" s="4" t="s">
@@ -25089,7 +25179,7 @@
         <v>73</v>
       </c>
       <c r="E317" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F317" s="2">
@@ -25119,11 +25209,12 @@
       <c r="N317" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O317" s="4" t="s">
-        <v>29</v>
+      <c r="O317" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field5</v>
       </c>
       <c r="P317" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q317" s="4" t="s">
@@ -25162,7 +25253,7 @@
         <v>73</v>
       </c>
       <c r="E318" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F318" s="2">
@@ -25192,11 +25283,12 @@
       <c r="N318" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O318" s="4" t="s">
-        <v>29</v>
+      <c r="O318" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field5</v>
       </c>
       <c r="P318" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q318" s="4" t="s">
@@ -25235,7 +25327,7 @@
         <v>73</v>
       </c>
       <c r="E319" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F319" s="2">
@@ -25265,11 +25357,12 @@
       <c r="N319" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O319" s="4" t="s">
-        <v>29</v>
+      <c r="O319" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field5</v>
       </c>
       <c r="P319" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q319" s="4" t="s">
@@ -25308,7 +25401,7 @@
         <v>73</v>
       </c>
       <c r="E320" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F320" s="2">
@@ -25338,11 +25431,12 @@
       <c r="N320" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O320" s="4" t="s">
-        <v>29</v>
+      <c r="O320" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field5</v>
       </c>
       <c r="P320" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q320" s="4" t="s">
@@ -25381,7 +25475,7 @@
         <v>73</v>
       </c>
       <c r="E321" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F321" s="2">
@@ -25411,11 +25505,12 @@
       <c r="N321" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O321" s="4" t="s">
-        <v>29</v>
+      <c r="O321" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field5</v>
       </c>
       <c r="P321" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q321" s="4" t="s">
@@ -25454,7 +25549,7 @@
         <v>73</v>
       </c>
       <c r="E322" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F322" s="2">
@@ -25484,11 +25579,12 @@
       <c r="N322" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O322" s="4" t="s">
-        <v>29</v>
+      <c r="O322" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field5</v>
       </c>
       <c r="P322" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q322" s="4" t="s">
@@ -25527,7 +25623,7 @@
         <v>73</v>
       </c>
       <c r="E323" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F323" s="2">
@@ -25557,11 +25653,12 @@
       <c r="N323" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O323" s="4" t="s">
-        <v>29</v>
+      <c r="O323" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field5</v>
       </c>
       <c r="P323" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q323" s="4" t="s">
@@ -25600,7 +25697,7 @@
         <v>73</v>
       </c>
       <c r="E324" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F324" s="2">
@@ -25630,11 +25727,12 @@
       <c r="N324" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O324" s="4" t="s">
-        <v>29</v>
+      <c r="O324" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field5</v>
       </c>
       <c r="P324" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q324" s="4" t="s">
@@ -25673,7 +25771,7 @@
         <v>73</v>
       </c>
       <c r="E325" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F325" s="2">
@@ -25703,11 +25801,12 @@
       <c r="N325" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O325" s="4" t="s">
-        <v>29</v>
+      <c r="O325" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field5</v>
       </c>
       <c r="P325" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q325" s="4" t="s">
@@ -25746,7 +25845,7 @@
         <v>73</v>
       </c>
       <c r="E326" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F326" s="2">
@@ -25776,11 +25875,12 @@
       <c r="N326" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O326" s="4" t="s">
-        <v>29</v>
+      <c r="O326" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field5</v>
       </c>
       <c r="P326" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q326" s="4" t="s">
@@ -25819,7 +25919,7 @@
         <v>73</v>
       </c>
       <c r="E327" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F327" s="2">
@@ -25849,11 +25949,12 @@
       <c r="N327" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O327" s="4" t="s">
-        <v>29</v>
+      <c r="O327" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field5</v>
       </c>
       <c r="P327" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q327" s="4" t="s">
@@ -25892,7 +25993,7 @@
         <v>73</v>
       </c>
       <c r="E328" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F328" s="2">
@@ -25922,11 +26023,12 @@
       <c r="N328" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O328" s="4" t="s">
-        <v>29</v>
+      <c r="O328" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field5</v>
       </c>
       <c r="P328" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q328" s="4" t="s">
@@ -25965,7 +26067,7 @@
         <v>74</v>
       </c>
       <c r="E329" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F329" s="2">
@@ -25995,11 +26097,12 @@
       <c r="N329" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O329" s="4" t="s">
-        <v>29</v>
+      <c r="O329" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field6</v>
       </c>
       <c r="P329" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q329" s="4" t="s">
@@ -26038,7 +26141,7 @@
         <v>74</v>
       </c>
       <c r="E330" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F330" s="2">
@@ -26068,11 +26171,12 @@
       <c r="N330" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O330" s="4" t="s">
-        <v>29</v>
+      <c r="O330" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field6</v>
       </c>
       <c r="P330" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q330" s="4" t="s">
@@ -26111,7 +26215,7 @@
         <v>74</v>
       </c>
       <c r="E331" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F331" s="2">
@@ -26141,11 +26245,12 @@
       <c r="N331" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O331" s="4" t="s">
-        <v>29</v>
+      <c r="O331" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field6</v>
       </c>
       <c r="P331" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q331" s="4" t="s">
@@ -26184,7 +26289,7 @@
         <v>74</v>
       </c>
       <c r="E332" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F332" s="2">
@@ -26214,11 +26319,12 @@
       <c r="N332" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O332" s="4" t="s">
-        <v>29</v>
+      <c r="O332" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field6</v>
       </c>
       <c r="P332" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q332" s="4" t="s">
@@ -26257,7 +26363,7 @@
         <v>74</v>
       </c>
       <c r="E333" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F333" s="2">
@@ -26287,11 +26393,12 @@
       <c r="N333" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O333" s="4" t="s">
-        <v>29</v>
+      <c r="O333" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field6</v>
       </c>
       <c r="P333" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q333" s="4" t="s">
@@ -26330,7 +26437,7 @@
         <v>74</v>
       </c>
       <c r="E334" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F334" s="2">
@@ -26360,11 +26467,12 @@
       <c r="N334" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O334" s="4" t="s">
-        <v>29</v>
+      <c r="O334" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field6</v>
       </c>
       <c r="P334" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q334" s="4" t="s">
@@ -26403,7 +26511,7 @@
         <v>74</v>
       </c>
       <c r="E335" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F335" s="2">
@@ -26433,11 +26541,12 @@
       <c r="N335" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O335" s="4" t="s">
-        <v>29</v>
+      <c r="O335" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field6</v>
       </c>
       <c r="P335" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q335" s="4" t="s">
@@ -26476,7 +26585,7 @@
         <v>74</v>
       </c>
       <c r="E336" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F336" s="2">
@@ -26506,11 +26615,12 @@
       <c r="N336" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O336" s="4" t="s">
-        <v>29</v>
+      <c r="O336" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field6</v>
       </c>
       <c r="P336" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q336" s="4" t="s">
@@ -26549,7 +26659,7 @@
         <v>74</v>
       </c>
       <c r="E337" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F337" s="2">
@@ -26579,11 +26689,12 @@
       <c r="N337" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O337" s="4" t="s">
-        <v>29</v>
+      <c r="O337" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field6</v>
       </c>
       <c r="P337" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q337" s="4" t="s">
@@ -26622,7 +26733,7 @@
         <v>74</v>
       </c>
       <c r="E338" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F338" s="2">
@@ -26652,11 +26763,12 @@
       <c r="N338" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O338" s="4" t="s">
-        <v>29</v>
+      <c r="O338" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field6</v>
       </c>
       <c r="P338" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q338" s="4" t="s">
@@ -26695,7 +26807,7 @@
         <v>74</v>
       </c>
       <c r="E339" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F339" s="2">
@@ -26725,11 +26837,12 @@
       <c r="N339" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O339" s="4" t="s">
-        <v>29</v>
+      <c r="O339" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field6</v>
       </c>
       <c r="P339" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q339" s="4" t="s">
@@ -26768,7 +26881,7 @@
         <v>74</v>
       </c>
       <c r="E340" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F340" s="2">
@@ -26798,11 +26911,12 @@
       <c r="N340" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O340" s="4" t="s">
-        <v>29</v>
+      <c r="O340" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field6</v>
       </c>
       <c r="P340" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q340" s="4" t="s">
@@ -26841,7 +26955,7 @@
         <v>74</v>
       </c>
       <c r="E341" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F341" s="2">
@@ -26871,11 +26985,12 @@
       <c r="N341" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O341" s="4" t="s">
-        <v>29</v>
+      <c r="O341" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field6</v>
       </c>
       <c r="P341" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q341" s="4" t="s">
@@ -26914,7 +27029,7 @@
         <v>74</v>
       </c>
       <c r="E342" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F342" s="2">
@@ -26944,11 +27059,12 @@
       <c r="N342" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O342" s="4" t="s">
-        <v>29</v>
+      <c r="O342" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field6</v>
       </c>
       <c r="P342" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q342" s="4" t="s">
@@ -26987,7 +27103,7 @@
         <v>74</v>
       </c>
       <c r="E343" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F343" s="2">
@@ -27017,11 +27133,12 @@
       <c r="N343" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O343" s="4" t="s">
-        <v>29</v>
+      <c r="O343" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field6</v>
       </c>
       <c r="P343" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q343" s="4" t="s">
@@ -27060,7 +27177,7 @@
         <v>74</v>
       </c>
       <c r="E344" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F344" s="2">
@@ -27090,11 +27207,12 @@
       <c r="N344" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O344" s="4" t="s">
-        <v>29</v>
+      <c r="O344" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field6</v>
       </c>
       <c r="P344" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q344" s="4" t="s">
@@ -27133,7 +27251,7 @@
         <v>74</v>
       </c>
       <c r="E345" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F345" s="2">
@@ -27163,11 +27281,12 @@
       <c r="N345" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O345" s="4" t="s">
-        <v>29</v>
+      <c r="O345" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field6</v>
       </c>
       <c r="P345" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q345" s="4" t="s">
@@ -27206,7 +27325,7 @@
         <v>74</v>
       </c>
       <c r="E346" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F346" s="2">
@@ -27236,11 +27355,12 @@
       <c r="N346" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O346" s="4" t="s">
-        <v>29</v>
+      <c r="O346" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field6</v>
       </c>
       <c r="P346" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q346" s="4" t="s">
@@ -27279,7 +27399,7 @@
         <v>74</v>
       </c>
       <c r="E347" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F347" s="2">
@@ -27309,11 +27429,12 @@
       <c r="N347" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O347" s="4" t="s">
-        <v>29</v>
+      <c r="O347" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field6</v>
       </c>
       <c r="P347" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q347" s="4" t="s">
@@ -27352,7 +27473,7 @@
         <v>74</v>
       </c>
       <c r="E348" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F348" s="2">
@@ -27382,11 +27503,12 @@
       <c r="N348" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O348" s="4" t="s">
-        <v>29</v>
+      <c r="O348" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field6</v>
       </c>
       <c r="P348" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q348" s="4" t="s">
@@ -27425,7 +27547,7 @@
         <v>74</v>
       </c>
       <c r="E349" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f>CONCATENATE(Q349, "-", B349)</f>
         <v>FIELD-44388</v>
       </c>
       <c r="F349" s="2">
@@ -27455,11 +27577,12 @@
       <c r="N349" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O349" s="4" t="s">
-        <v>29</v>
+      <c r="O349" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field6</v>
       </c>
       <c r="P349" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q349" s="4" t="s">
@@ -27498,7 +27621,7 @@
         <v>74</v>
       </c>
       <c r="E350" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44388</v>
       </c>
       <c r="F350" s="2">
@@ -27528,11 +27651,12 @@
       <c r="N350" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O350" s="4" t="s">
-        <v>29</v>
+      <c r="O350" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field6</v>
       </c>
       <c r="P350" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q350" s="4" t="s">
@@ -27571,7 +27695,7 @@
         <v>75</v>
       </c>
       <c r="E351" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F351" s="2">
@@ -27601,11 +27725,12 @@
       <c r="N351" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O351" s="4" t="s">
-        <v>29</v>
+      <c r="O351" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field7</v>
       </c>
       <c r="P351" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q351" s="4" t="s">
@@ -27644,7 +27769,7 @@
         <v>75</v>
       </c>
       <c r="E352" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F352" s="2">
@@ -27674,11 +27799,12 @@
       <c r="N352" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O352" s="4" t="s">
-        <v>29</v>
+      <c r="O352" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field7</v>
       </c>
       <c r="P352" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q352" s="4" t="s">
@@ -27717,7 +27843,7 @@
         <v>75</v>
       </c>
       <c r="E353" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F353" s="2">
@@ -27747,11 +27873,12 @@
       <c r="N353" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O353" s="4" t="s">
-        <v>29</v>
+      <c r="O353" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field7</v>
       </c>
       <c r="P353" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q353" s="4" t="s">
@@ -27790,7 +27917,7 @@
         <v>75</v>
       </c>
       <c r="E354" s="24" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F354" s="2">
@@ -27820,11 +27947,12 @@
       <c r="N354" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O354" s="4" t="s">
-        <v>29</v>
+      <c r="O354" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field7</v>
       </c>
       <c r="P354" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q354" s="4" t="s">
@@ -27863,7 +27991,7 @@
         <v>75</v>
       </c>
       <c r="E355" s="24" t="str">
-        <f t="shared" ref="E355:E418" si="36">CONCATENATE(Q355, "-", B355)</f>
+        <f t="shared" ref="E355:E418" si="38">CONCATENATE(Q355, "-", B355)</f>
         <v>FIELD-44391</v>
       </c>
       <c r="F355" s="2">
@@ -27893,11 +28021,12 @@
       <c r="N355" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O355" s="4" t="s">
-        <v>29</v>
+      <c r="O355" s="24" t="str">
+        <f t="shared" si="36"/>
+        <v>field7</v>
       </c>
       <c r="P355" s="4" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>FIELD</v>
       </c>
       <c r="Q355" s="4" t="s">
@@ -27936,7 +28065,7 @@
         <v>75</v>
       </c>
       <c r="E356" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F356" s="2">
@@ -27966,11 +28095,12 @@
       <c r="N356" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O356" s="4" t="s">
-        <v>29</v>
+      <c r="O356" s="24" t="str">
+        <f t="shared" ref="O356:O419" si="39">D356</f>
+        <v>field7</v>
       </c>
       <c r="P356" s="4" t="str">
-        <f t="shared" ref="P356:P419" si="37">Q356</f>
+        <f t="shared" ref="P356:P419" si="40">Q356</f>
         <v>FIELD</v>
       </c>
       <c r="Q356" s="4" t="s">
@@ -28009,7 +28139,7 @@
         <v>75</v>
       </c>
       <c r="E357" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F357" s="2">
@@ -28039,11 +28169,12 @@
       <c r="N357" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O357" s="4" t="s">
-        <v>29</v>
+      <c r="O357" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field7</v>
       </c>
       <c r="P357" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q357" s="4" t="s">
@@ -28082,7 +28213,7 @@
         <v>75</v>
       </c>
       <c r="E358" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F358" s="2">
@@ -28112,11 +28243,12 @@
       <c r="N358" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O358" s="4" t="s">
-        <v>29</v>
+      <c r="O358" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field7</v>
       </c>
       <c r="P358" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q358" s="4" t="s">
@@ -28155,7 +28287,7 @@
         <v>75</v>
       </c>
       <c r="E359" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F359" s="2">
@@ -28185,11 +28317,12 @@
       <c r="N359" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O359" s="4" t="s">
-        <v>29</v>
+      <c r="O359" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field7</v>
       </c>
       <c r="P359" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q359" s="4" t="s">
@@ -28228,7 +28361,7 @@
         <v>75</v>
       </c>
       <c r="E360" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F360" s="2">
@@ -28258,11 +28391,12 @@
       <c r="N360" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O360" s="4" t="s">
-        <v>29</v>
+      <c r="O360" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field7</v>
       </c>
       <c r="P360" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q360" s="4" t="s">
@@ -28301,7 +28435,7 @@
         <v>75</v>
       </c>
       <c r="E361" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F361" s="2">
@@ -28331,11 +28465,12 @@
       <c r="N361" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O361" s="4" t="s">
-        <v>29</v>
+      <c r="O361" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field7</v>
       </c>
       <c r="P361" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q361" s="4" t="s">
@@ -28374,7 +28509,7 @@
         <v>75</v>
       </c>
       <c r="E362" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F362" s="2">
@@ -28404,11 +28539,12 @@
       <c r="N362" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O362" s="4" t="s">
-        <v>29</v>
+      <c r="O362" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field7</v>
       </c>
       <c r="P362" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q362" s="4" t="s">
@@ -28447,7 +28583,7 @@
         <v>75</v>
       </c>
       <c r="E363" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F363" s="2">
@@ -28477,11 +28613,12 @@
       <c r="N363" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O363" s="4" t="s">
-        <v>29</v>
+      <c r="O363" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field7</v>
       </c>
       <c r="P363" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q363" s="4" t="s">
@@ -28520,7 +28657,7 @@
         <v>75</v>
       </c>
       <c r="E364" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F364" s="2">
@@ -28550,11 +28687,12 @@
       <c r="N364" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O364" s="4" t="s">
-        <v>29</v>
+      <c r="O364" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field7</v>
       </c>
       <c r="P364" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q364" s="4" t="s">
@@ -28593,7 +28731,7 @@
         <v>75</v>
       </c>
       <c r="E365" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F365" s="2">
@@ -28623,11 +28761,12 @@
       <c r="N365" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O365" s="4" t="s">
-        <v>29</v>
+      <c r="O365" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field7</v>
       </c>
       <c r="P365" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q365" s="4" t="s">
@@ -28666,7 +28805,7 @@
         <v>75</v>
       </c>
       <c r="E366" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F366" s="2">
@@ -28696,11 +28835,12 @@
       <c r="N366" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O366" s="4" t="s">
-        <v>29</v>
+      <c r="O366" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field7</v>
       </c>
       <c r="P366" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q366" s="4" t="s">
@@ -28739,7 +28879,7 @@
         <v>75</v>
       </c>
       <c r="E367" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F367" s="2">
@@ -28769,11 +28909,12 @@
       <c r="N367" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O367" s="4" t="s">
-        <v>29</v>
+      <c r="O367" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field7</v>
       </c>
       <c r="P367" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q367" s="4" t="s">
@@ -28812,7 +28953,7 @@
         <v>75</v>
       </c>
       <c r="E368" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F368" s="2">
@@ -28842,11 +28983,12 @@
       <c r="N368" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O368" s="4" t="s">
-        <v>29</v>
+      <c r="O368" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field7</v>
       </c>
       <c r="P368" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q368" s="4" t="s">
@@ -28885,7 +29027,7 @@
         <v>75</v>
       </c>
       <c r="E369" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F369" s="2">
@@ -28915,11 +29057,12 @@
       <c r="N369" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O369" s="4" t="s">
-        <v>29</v>
+      <c r="O369" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field7</v>
       </c>
       <c r="P369" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q369" s="4" t="s">
@@ -28958,7 +29101,7 @@
         <v>75</v>
       </c>
       <c r="E370" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F370" s="2">
@@ -28988,11 +29131,12 @@
       <c r="N370" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O370" s="4" t="s">
-        <v>29</v>
+      <c r="O370" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field7</v>
       </c>
       <c r="P370" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q370" s="4" t="s">
@@ -29031,7 +29175,7 @@
         <v>76</v>
       </c>
       <c r="E371" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F371" s="2">
@@ -29061,11 +29205,12 @@
       <c r="N371" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O371" s="4" t="s">
-        <v>29</v>
+      <c r="O371" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field8</v>
       </c>
       <c r="P371" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q371" s="4" t="s">
@@ -29104,7 +29249,7 @@
         <v>76</v>
       </c>
       <c r="E372" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F372" s="2">
@@ -29134,11 +29279,12 @@
       <c r="N372" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O372" s="4" t="s">
-        <v>29</v>
+      <c r="O372" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field8</v>
       </c>
       <c r="P372" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q372" s="4" t="s">
@@ -29177,7 +29323,7 @@
         <v>76</v>
       </c>
       <c r="E373" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F373" s="2">
@@ -29207,11 +29353,12 @@
       <c r="N373" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O373" s="4" t="s">
-        <v>29</v>
+      <c r="O373" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field8</v>
       </c>
       <c r="P373" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q373" s="4" t="s">
@@ -29250,7 +29397,7 @@
         <v>76</v>
       </c>
       <c r="E374" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F374" s="2">
@@ -29280,11 +29427,12 @@
       <c r="N374" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O374" s="4" t="s">
-        <v>29</v>
+      <c r="O374" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field8</v>
       </c>
       <c r="P374" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q374" s="4" t="s">
@@ -29323,7 +29471,7 @@
         <v>76</v>
       </c>
       <c r="E375" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F375" s="2">
@@ -29353,11 +29501,12 @@
       <c r="N375" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O375" s="4" t="s">
-        <v>29</v>
+      <c r="O375" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field8</v>
       </c>
       <c r="P375" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q375" s="4" t="s">
@@ -29396,7 +29545,7 @@
         <v>76</v>
       </c>
       <c r="E376" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F376" s="2">
@@ -29426,11 +29575,12 @@
       <c r="N376" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O376" s="4" t="s">
-        <v>29</v>
+      <c r="O376" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field8</v>
       </c>
       <c r="P376" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q376" s="4" t="s">
@@ -29469,7 +29619,7 @@
         <v>76</v>
       </c>
       <c r="E377" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F377" s="2">
@@ -29499,11 +29649,12 @@
       <c r="N377" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O377" s="4" t="s">
-        <v>29</v>
+      <c r="O377" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field8</v>
       </c>
       <c r="P377" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q377" s="4" t="s">
@@ -29542,7 +29693,7 @@
         <v>76</v>
       </c>
       <c r="E378" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F378" s="2">
@@ -29572,11 +29723,12 @@
       <c r="N378" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O378" s="4" t="s">
-        <v>29</v>
+      <c r="O378" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field8</v>
       </c>
       <c r="P378" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q378" s="4" t="s">
@@ -29615,7 +29767,7 @@
         <v>76</v>
       </c>
       <c r="E379" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F379" s="2">
@@ -29645,11 +29797,12 @@
       <c r="N379" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O379" s="4" t="s">
-        <v>29</v>
+      <c r="O379" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field8</v>
       </c>
       <c r="P379" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q379" s="4" t="s">
@@ -29688,7 +29841,7 @@
         <v>76</v>
       </c>
       <c r="E380" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F380" s="2">
@@ -29718,11 +29871,12 @@
       <c r="N380" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O380" s="4" t="s">
-        <v>29</v>
+      <c r="O380" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field8</v>
       </c>
       <c r="P380" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q380" s="4" t="s">
@@ -29761,7 +29915,7 @@
         <v>76</v>
       </c>
       <c r="E381" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F381" s="2">
@@ -29791,11 +29945,12 @@
       <c r="N381" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O381" s="4" t="s">
-        <v>29</v>
+      <c r="O381" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field8</v>
       </c>
       <c r="P381" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q381" s="4" t="s">
@@ -29834,7 +29989,7 @@
         <v>76</v>
       </c>
       <c r="E382" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F382" s="2">
@@ -29864,11 +30019,12 @@
       <c r="N382" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O382" s="4" t="s">
-        <v>29</v>
+      <c r="O382" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field8</v>
       </c>
       <c r="P382" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q382" s="4" t="s">
@@ -29907,7 +30063,7 @@
         <v>76</v>
       </c>
       <c r="E383" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F383" s="2">
@@ -29937,11 +30093,12 @@
       <c r="N383" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O383" s="4" t="s">
-        <v>29</v>
+      <c r="O383" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field8</v>
       </c>
       <c r="P383" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q383" s="4" t="s">
@@ -29980,7 +30137,7 @@
         <v>76</v>
       </c>
       <c r="E384" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F384" s="2">
@@ -30010,11 +30167,12 @@
       <c r="N384" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O384" s="4" t="s">
-        <v>29</v>
+      <c r="O384" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field8</v>
       </c>
       <c r="P384" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q384" s="4" t="s">
@@ -30053,7 +30211,7 @@
         <v>76</v>
       </c>
       <c r="E385" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F385" s="2">
@@ -30083,11 +30241,12 @@
       <c r="N385" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O385" s="4" t="s">
-        <v>29</v>
+      <c r="O385" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field8</v>
       </c>
       <c r="P385" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q385" s="4" t="s">
@@ -30126,7 +30285,7 @@
         <v>76</v>
       </c>
       <c r="E386" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F386" s="2">
@@ -30156,11 +30315,12 @@
       <c r="N386" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O386" s="4" t="s">
-        <v>29</v>
+      <c r="O386" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field8</v>
       </c>
       <c r="P386" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q386" s="4" t="s">
@@ -30199,7 +30359,7 @@
         <v>76</v>
       </c>
       <c r="E387" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F387" s="2">
@@ -30229,11 +30389,12 @@
       <c r="N387" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O387" s="4" t="s">
-        <v>29</v>
+      <c r="O387" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field8</v>
       </c>
       <c r="P387" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q387" s="4" t="s">
@@ -30272,7 +30433,7 @@
         <v>76</v>
       </c>
       <c r="E388" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F388" s="2">
@@ -30302,11 +30463,12 @@
       <c r="N388" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O388" s="4" t="s">
-        <v>29</v>
+      <c r="O388" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field8</v>
       </c>
       <c r="P388" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q388" s="4" t="s">
@@ -30345,7 +30507,7 @@
         <v>76</v>
       </c>
       <c r="E389" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F389" s="2">
@@ -30375,11 +30537,12 @@
       <c r="N389" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O389" s="4" t="s">
-        <v>29</v>
+      <c r="O389" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field8</v>
       </c>
       <c r="P389" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q389" s="4" t="s">
@@ -30418,7 +30581,7 @@
         <v>76</v>
       </c>
       <c r="E390" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F390" s="2">
@@ -30448,11 +30611,12 @@
       <c r="N390" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O390" s="4" t="s">
-        <v>29</v>
+      <c r="O390" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field8</v>
       </c>
       <c r="P390" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q390" s="4" t="s">
@@ -30491,7 +30655,7 @@
         <v>76</v>
       </c>
       <c r="E391" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F391" s="2">
@@ -30521,11 +30685,12 @@
       <c r="N391" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O391" s="4" t="s">
-        <v>29</v>
+      <c r="O391" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field8</v>
       </c>
       <c r="P391" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q391" s="4" t="s">
@@ -30564,7 +30729,7 @@
         <v>76</v>
       </c>
       <c r="E392" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F392" s="2">
@@ -30594,11 +30759,12 @@
       <c r="N392" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O392" s="4" t="s">
-        <v>29</v>
+      <c r="O392" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field8</v>
       </c>
       <c r="P392" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q392" s="4" t="s">
@@ -30637,7 +30803,7 @@
         <v>76</v>
       </c>
       <c r="E393" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F393" s="2">
@@ -30667,11 +30833,12 @@
       <c r="N393" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O393" s="4" t="s">
-        <v>29</v>
+      <c r="O393" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field8</v>
       </c>
       <c r="P393" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q393" s="4" t="s">
@@ -30710,7 +30877,7 @@
         <v>76</v>
       </c>
       <c r="E394" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44391</v>
       </c>
       <c r="F394" s="5">
@@ -30740,11 +30907,12 @@
       <c r="N394" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O394" s="4" t="s">
-        <v>29</v>
+      <c r="O394" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field8</v>
       </c>
       <c r="P394" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q394" s="4" t="s">
@@ -30783,7 +30951,7 @@
         <v>77</v>
       </c>
       <c r="E395" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F395">
@@ -30813,11 +30981,12 @@
       <c r="N395" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O395" s="4" t="s">
-        <v>29</v>
+      <c r="O395" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field9</v>
       </c>
       <c r="P395" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q395" s="4" t="s">
@@ -30856,7 +31025,7 @@
         <v>77</v>
       </c>
       <c r="E396" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F396">
@@ -30886,11 +31055,12 @@
       <c r="N396" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O396" s="4" t="s">
-        <v>29</v>
+      <c r="O396" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field9</v>
       </c>
       <c r="P396" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q396" s="4" t="s">
@@ -30929,7 +31099,7 @@
         <v>77</v>
       </c>
       <c r="E397" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F397">
@@ -30959,11 +31129,12 @@
       <c r="N397" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O397" s="4" t="s">
-        <v>29</v>
+      <c r="O397" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field9</v>
       </c>
       <c r="P397" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q397" s="4" t="s">
@@ -31002,7 +31173,7 @@
         <v>77</v>
       </c>
       <c r="E398" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F398">
@@ -31032,11 +31203,12 @@
       <c r="N398" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O398" s="4" t="s">
-        <v>29</v>
+      <c r="O398" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field9</v>
       </c>
       <c r="P398" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q398" s="4" t="s">
@@ -31075,7 +31247,7 @@
         <v>77</v>
       </c>
       <c r="E399" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F399">
@@ -31105,11 +31277,12 @@
       <c r="N399" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O399" s="4" t="s">
-        <v>29</v>
+      <c r="O399" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field9</v>
       </c>
       <c r="P399" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q399" s="4" t="s">
@@ -31148,7 +31321,7 @@
         <v>77</v>
       </c>
       <c r="E400" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F400">
@@ -31178,11 +31351,12 @@
       <c r="N400" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O400" s="4" t="s">
-        <v>29</v>
+      <c r="O400" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field9</v>
       </c>
       <c r="P400" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q400" s="4" t="s">
@@ -31221,7 +31395,7 @@
         <v>77</v>
       </c>
       <c r="E401" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F401">
@@ -31251,11 +31425,12 @@
       <c r="N401" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O401" s="4" t="s">
-        <v>29</v>
+      <c r="O401" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field9</v>
       </c>
       <c r="P401" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q401" s="4" t="s">
@@ -31294,7 +31469,7 @@
         <v>77</v>
       </c>
       <c r="E402" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F402">
@@ -31324,11 +31499,12 @@
       <c r="N402" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O402" s="4" t="s">
-        <v>29</v>
+      <c r="O402" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field9</v>
       </c>
       <c r="P402" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q402" s="4" t="s">
@@ -31367,7 +31543,7 @@
         <v>77</v>
       </c>
       <c r="E403" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F403">
@@ -31397,11 +31573,12 @@
       <c r="N403" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O403" s="4" t="s">
-        <v>29</v>
+      <c r="O403" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field9</v>
       </c>
       <c r="P403" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q403" s="4" t="s">
@@ -31440,7 +31617,7 @@
         <v>77</v>
       </c>
       <c r="E404" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F404">
@@ -31470,11 +31647,12 @@
       <c r="N404" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O404" s="4" t="s">
-        <v>29</v>
+      <c r="O404" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field9</v>
       </c>
       <c r="P404" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q404" s="4" t="s">
@@ -31513,7 +31691,7 @@
         <v>77</v>
       </c>
       <c r="E405" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F405">
@@ -31543,11 +31721,12 @@
       <c r="N405" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O405" s="4" t="s">
-        <v>29</v>
+      <c r="O405" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field9</v>
       </c>
       <c r="P405" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q405" s="4" t="s">
@@ -31586,7 +31765,7 @@
         <v>77</v>
       </c>
       <c r="E406" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F406">
@@ -31616,11 +31795,12 @@
       <c r="N406" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O406" s="4" t="s">
-        <v>29</v>
+      <c r="O406" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field9</v>
       </c>
       <c r="P406" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q406" s="4" t="s">
@@ -31659,7 +31839,7 @@
         <v>77</v>
       </c>
       <c r="E407" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F407">
@@ -31689,11 +31869,12 @@
       <c r="N407" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O407" s="4" t="s">
-        <v>29</v>
+      <c r="O407" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field9</v>
       </c>
       <c r="P407" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q407" s="4" t="s">
@@ -31732,7 +31913,7 @@
         <v>77</v>
       </c>
       <c r="E408" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F408" s="7">
@@ -31762,11 +31943,12 @@
       <c r="N408" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O408" s="4" t="s">
-        <v>29</v>
+      <c r="O408" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field9</v>
       </c>
       <c r="P408" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q408" s="4" t="s">
@@ -31805,7 +31987,7 @@
         <v>78</v>
       </c>
       <c r="E409" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F409">
@@ -31835,11 +32017,12 @@
       <c r="N409" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O409" s="4" t="s">
-        <v>29</v>
+      <c r="O409" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field10</v>
       </c>
       <c r="P409" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q409" s="4" t="s">
@@ -31878,7 +32061,7 @@
         <v>78</v>
       </c>
       <c r="E410" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F410">
@@ -31908,11 +32091,12 @@
       <c r="N410" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O410" s="4" t="s">
-        <v>29</v>
+      <c r="O410" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field10</v>
       </c>
       <c r="P410" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q410" s="4" t="s">
@@ -31951,7 +32135,7 @@
         <v>78</v>
       </c>
       <c r="E411" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F411">
@@ -31981,11 +32165,12 @@
       <c r="N411" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O411" s="4" t="s">
-        <v>29</v>
+      <c r="O411" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field10</v>
       </c>
       <c r="P411" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q411" s="4" t="s">
@@ -32024,7 +32209,7 @@
         <v>78</v>
       </c>
       <c r="E412" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F412">
@@ -32054,11 +32239,12 @@
       <c r="N412" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O412" s="4" t="s">
-        <v>29</v>
+      <c r="O412" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field10</v>
       </c>
       <c r="P412" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q412" s="4" t="s">
@@ -32097,7 +32283,7 @@
         <v>78</v>
       </c>
       <c r="E413" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F413">
@@ -32127,11 +32313,12 @@
       <c r="N413" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O413" s="4" t="s">
-        <v>29</v>
+      <c r="O413" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field10</v>
       </c>
       <c r="P413" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q413" s="4" t="s">
@@ -32170,7 +32357,7 @@
         <v>78</v>
       </c>
       <c r="E414" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F414">
@@ -32200,11 +32387,12 @@
       <c r="N414" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O414" s="4" t="s">
-        <v>29</v>
+      <c r="O414" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field10</v>
       </c>
       <c r="P414" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q414" s="4" t="s">
@@ -32243,7 +32431,7 @@
         <v>78</v>
       </c>
       <c r="E415" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F415">
@@ -32273,11 +32461,12 @@
       <c r="N415" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O415" s="4" t="s">
-        <v>29</v>
+      <c r="O415" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field10</v>
       </c>
       <c r="P415" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q415" s="4" t="s">
@@ -32316,7 +32505,7 @@
         <v>78</v>
       </c>
       <c r="E416" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F416">
@@ -32346,11 +32535,12 @@
       <c r="N416" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O416" s="4" t="s">
-        <v>29</v>
+      <c r="O416" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field10</v>
       </c>
       <c r="P416" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q416" s="4" t="s">
@@ -32389,7 +32579,7 @@
         <v>78</v>
       </c>
       <c r="E417" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F417">
@@ -32419,11 +32609,12 @@
       <c r="N417" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O417" s="4" t="s">
-        <v>29</v>
+      <c r="O417" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field10</v>
       </c>
       <c r="P417" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q417" s="4" t="s">
@@ -32462,7 +32653,7 @@
         <v>78</v>
       </c>
       <c r="E418" s="24" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F418">
@@ -32492,11 +32683,12 @@
       <c r="N418" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O418" s="4" t="s">
-        <v>29</v>
+      <c r="O418" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field10</v>
       </c>
       <c r="P418" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q418" s="4" t="s">
@@ -32535,7 +32727,7 @@
         <v>78</v>
       </c>
       <c r="E419" s="24" t="str">
-        <f t="shared" ref="E419:E482" si="38">CONCATENATE(Q419, "-", B419)</f>
+        <f t="shared" ref="E419:E482" si="41">CONCATENATE(Q419, "-", B419)</f>
         <v>FIELD-44460</v>
       </c>
       <c r="F419">
@@ -32565,11 +32757,12 @@
       <c r="N419" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O419" s="4" t="s">
-        <v>29</v>
+      <c r="O419" s="24" t="str">
+        <f t="shared" si="39"/>
+        <v>field10</v>
       </c>
       <c r="P419" s="4" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>FIELD</v>
       </c>
       <c r="Q419" s="4" t="s">
@@ -32608,7 +32801,7 @@
         <v>78</v>
       </c>
       <c r="E420" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F420">
@@ -32638,11 +32831,12 @@
       <c r="N420" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O420" s="4" t="s">
-        <v>29</v>
+      <c r="O420" s="24" t="str">
+        <f t="shared" ref="O420:O483" si="42">D420</f>
+        <v>field10</v>
       </c>
       <c r="P420" s="4" t="str">
-        <f t="shared" ref="P420:P483" si="39">Q420</f>
+        <f t="shared" ref="P420:P483" si="43">Q420</f>
         <v>FIELD</v>
       </c>
       <c r="Q420" s="4" t="s">
@@ -32681,7 +32875,7 @@
         <v>78</v>
       </c>
       <c r="E421" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F421">
@@ -32711,11 +32905,12 @@
       <c r="N421" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O421" s="4" t="s">
-        <v>29</v>
+      <c r="O421" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field10</v>
       </c>
       <c r="P421" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q421" s="4" t="s">
@@ -32754,7 +32949,7 @@
         <v>78</v>
       </c>
       <c r="E422" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F422">
@@ -32784,11 +32979,12 @@
       <c r="N422" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O422" s="4" t="s">
-        <v>29</v>
+      <c r="O422" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field10</v>
       </c>
       <c r="P422" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q422" s="4" t="s">
@@ -32827,7 +33023,7 @@
         <v>78</v>
       </c>
       <c r="E423" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F423" s="7">
@@ -32857,11 +33053,12 @@
       <c r="N423" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O423" s="4" t="s">
-        <v>29</v>
+      <c r="O423" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field10</v>
       </c>
       <c r="P423" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q423" s="4" t="s">
@@ -32900,7 +33097,7 @@
         <v>79</v>
       </c>
       <c r="E424" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F424" s="4" t="s">
@@ -32930,11 +33127,12 @@
       <c r="N424" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O424" s="4" t="s">
-        <v>29</v>
+      <c r="O424" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field11</v>
       </c>
       <c r="P424" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q424" s="4" t="s">
@@ -32973,7 +33171,7 @@
         <v>79</v>
       </c>
       <c r="E425" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F425">
@@ -33003,11 +33201,12 @@
       <c r="N425" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O425" s="4" t="s">
-        <v>29</v>
+      <c r="O425" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field11</v>
       </c>
       <c r="P425" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q425" s="4" t="s">
@@ -33046,7 +33245,7 @@
         <v>79</v>
       </c>
       <c r="E426" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F426">
@@ -33076,11 +33275,12 @@
       <c r="N426" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O426" s="4" t="s">
-        <v>29</v>
+      <c r="O426" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field11</v>
       </c>
       <c r="P426" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q426" s="4" t="s">
@@ -33119,7 +33319,7 @@
         <v>79</v>
       </c>
       <c r="E427" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F427">
@@ -33149,11 +33349,12 @@
       <c r="N427" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O427" s="4" t="s">
-        <v>29</v>
+      <c r="O427" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field11</v>
       </c>
       <c r="P427" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q427" s="4" t="s">
@@ -33192,7 +33393,7 @@
         <v>79</v>
       </c>
       <c r="E428" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F428">
@@ -33222,11 +33423,12 @@
       <c r="N428" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O428" s="4" t="s">
-        <v>29</v>
+      <c r="O428" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field11</v>
       </c>
       <c r="P428" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q428" s="4" t="s">
@@ -33265,7 +33467,7 @@
         <v>79</v>
       </c>
       <c r="E429" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F429">
@@ -33295,11 +33497,12 @@
       <c r="N429" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O429" s="4" t="s">
-        <v>29</v>
+      <c r="O429" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field11</v>
       </c>
       <c r="P429" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q429" s="4" t="s">
@@ -33338,7 +33541,7 @@
         <v>79</v>
       </c>
       <c r="E430" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F430">
@@ -33368,11 +33571,12 @@
       <c r="N430" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O430" s="4" t="s">
-        <v>29</v>
+      <c r="O430" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field11</v>
       </c>
       <c r="P430" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q430" s="4" t="s">
@@ -33411,7 +33615,7 @@
         <v>79</v>
       </c>
       <c r="E431" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F431">
@@ -33441,11 +33645,12 @@
       <c r="N431" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O431" s="4" t="s">
-        <v>29</v>
+      <c r="O431" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field11</v>
       </c>
       <c r="P431" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q431" s="4" t="s">
@@ -33484,7 +33689,7 @@
         <v>79</v>
       </c>
       <c r="E432" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F432">
@@ -33514,11 +33719,12 @@
       <c r="N432" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O432" s="4" t="s">
-        <v>29</v>
+      <c r="O432" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field11</v>
       </c>
       <c r="P432" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q432" s="4" t="s">
@@ -33557,7 +33763,7 @@
         <v>79</v>
       </c>
       <c r="E433" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F433">
@@ -33587,11 +33793,12 @@
       <c r="N433" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O433" s="4" t="s">
-        <v>29</v>
+      <c r="O433" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field11</v>
       </c>
       <c r="P433" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q433" s="4" t="s">
@@ -33630,7 +33837,7 @@
         <v>79</v>
       </c>
       <c r="E434" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F434">
@@ -33660,11 +33867,12 @@
       <c r="N434" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O434" s="4" t="s">
-        <v>29</v>
+      <c r="O434" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field11</v>
       </c>
       <c r="P434" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q434" s="4" t="s">
@@ -33703,7 +33911,7 @@
         <v>79</v>
       </c>
       <c r="E435" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F435">
@@ -33733,11 +33941,12 @@
       <c r="N435" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O435" s="4" t="s">
-        <v>29</v>
+      <c r="O435" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field11</v>
       </c>
       <c r="P435" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q435" s="4" t="s">
@@ -33776,7 +33985,7 @@
         <v>79</v>
       </c>
       <c r="E436" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F436">
@@ -33806,11 +34015,12 @@
       <c r="N436" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O436" s="4" t="s">
-        <v>29</v>
+      <c r="O436" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field11</v>
       </c>
       <c r="P436" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q436" s="4" t="s">
@@ -33849,7 +34059,7 @@
         <v>79</v>
       </c>
       <c r="E437" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F437">
@@ -33879,11 +34089,12 @@
       <c r="N437" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O437" s="4" t="s">
-        <v>29</v>
+      <c r="O437" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field11</v>
       </c>
       <c r="P437" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q437" s="4" t="s">
@@ -33922,7 +34133,7 @@
         <v>79</v>
       </c>
       <c r="E438" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F438">
@@ -33952,11 +34163,12 @@
       <c r="N438" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O438" s="4" t="s">
-        <v>29</v>
+      <c r="O438" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field11</v>
       </c>
       <c r="P438" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q438" s="4" t="s">
@@ -33995,7 +34207,7 @@
         <v>79</v>
       </c>
       <c r="E439" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F439" s="7">
@@ -34025,11 +34237,12 @@
       <c r="N439" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O439" s="4" t="s">
-        <v>29</v>
+      <c r="O439" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field11</v>
       </c>
       <c r="P439" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q439" s="4" t="s">
@@ -34068,7 +34281,7 @@
         <v>80</v>
       </c>
       <c r="E440" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F440">
@@ -34098,11 +34311,12 @@
       <c r="N440" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O440" s="4" t="s">
-        <v>29</v>
+      <c r="O440" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field12</v>
       </c>
       <c r="P440" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q440" s="4" t="s">
@@ -34141,7 +34355,7 @@
         <v>80</v>
       </c>
       <c r="E441" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F441">
@@ -34171,11 +34385,12 @@
       <c r="N441" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O441" s="4" t="s">
-        <v>29</v>
+      <c r="O441" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field12</v>
       </c>
       <c r="P441" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q441" s="4" t="s">
@@ -34214,7 +34429,7 @@
         <v>80</v>
       </c>
       <c r="E442" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F442">
@@ -34244,11 +34459,12 @@
       <c r="N442" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O442" s="4" t="s">
-        <v>29</v>
+      <c r="O442" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field12</v>
       </c>
       <c r="P442" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q442" s="4" t="s">
@@ -34287,7 +34503,7 @@
         <v>80</v>
       </c>
       <c r="E443" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F443">
@@ -34317,11 +34533,12 @@
       <c r="N443" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O443" s="4" t="s">
-        <v>29</v>
+      <c r="O443" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field12</v>
       </c>
       <c r="P443" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q443" s="4" t="s">
@@ -34360,7 +34577,7 @@
         <v>80</v>
       </c>
       <c r="E444" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F444">
@@ -34390,11 +34607,12 @@
       <c r="N444" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O444" s="4" t="s">
-        <v>29</v>
+      <c r="O444" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field12</v>
       </c>
       <c r="P444" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q444" s="4" t="s">
@@ -34433,7 +34651,7 @@
         <v>80</v>
       </c>
       <c r="E445" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F445">
@@ -34463,11 +34681,12 @@
       <c r="N445" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O445" s="4" t="s">
-        <v>29</v>
+      <c r="O445" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field12</v>
       </c>
       <c r="P445" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q445" s="4" t="s">
@@ -34506,7 +34725,7 @@
         <v>80</v>
       </c>
       <c r="E446" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F446" s="4" t="s">
@@ -34536,11 +34755,12 @@
       <c r="N446" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O446" s="4" t="s">
-        <v>29</v>
+      <c r="O446" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field12</v>
       </c>
       <c r="P446" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q446" s="4" t="s">
@@ -34579,7 +34799,7 @@
         <v>80</v>
       </c>
       <c r="E447" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F447" s="4" t="s">
@@ -34609,11 +34829,12 @@
       <c r="N447" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O447" s="4" t="s">
-        <v>29</v>
+      <c r="O447" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field12</v>
       </c>
       <c r="P447" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q447" s="4" t="s">
@@ -34652,7 +34873,7 @@
         <v>80</v>
       </c>
       <c r="E448" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F448">
@@ -34682,11 +34903,12 @@
       <c r="N448" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O448" s="4" t="s">
-        <v>29</v>
+      <c r="O448" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field12</v>
       </c>
       <c r="P448" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q448" s="4" t="s">
@@ -34725,7 +34947,7 @@
         <v>80</v>
       </c>
       <c r="E449" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F449">
@@ -34755,11 +34977,12 @@
       <c r="N449" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O449" s="4" t="s">
-        <v>29</v>
+      <c r="O449" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field12</v>
       </c>
       <c r="P449" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q449" s="4" t="s">
@@ -34798,7 +35021,7 @@
         <v>80</v>
       </c>
       <c r="E450" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F450">
@@ -34828,11 +35051,12 @@
       <c r="N450" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O450" s="4" t="s">
-        <v>29</v>
+      <c r="O450" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field12</v>
       </c>
       <c r="P450" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q450" s="4" t="s">
@@ -34871,7 +35095,7 @@
         <v>80</v>
       </c>
       <c r="E451" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F451">
@@ -34901,11 +35125,12 @@
       <c r="N451" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O451" s="4" t="s">
-        <v>29</v>
+      <c r="O451" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field12</v>
       </c>
       <c r="P451" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q451" s="4" t="s">
@@ -34944,7 +35169,7 @@
         <v>80</v>
       </c>
       <c r="E452" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44460</v>
       </c>
       <c r="F452" s="7">
@@ -34974,11 +35199,12 @@
       <c r="N452" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O452" s="4" t="s">
-        <v>29</v>
+      <c r="O452" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field12</v>
       </c>
       <c r="P452" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q452" s="4" t="s">
@@ -35017,7 +35243,7 @@
         <v>81</v>
       </c>
       <c r="E453" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F453">
@@ -35047,11 +35273,12 @@
       <c r="N453" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O453" s="4" t="s">
-        <v>29</v>
+      <c r="O453" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field13</v>
       </c>
       <c r="P453" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q453" s="4" t="s">
@@ -35090,7 +35317,7 @@
         <v>81</v>
       </c>
       <c r="E454" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F454">
@@ -35120,11 +35347,12 @@
       <c r="N454" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O454" s="4" t="s">
-        <v>29</v>
+      <c r="O454" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field13</v>
       </c>
       <c r="P454" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q454" s="4" t="s">
@@ -35163,7 +35391,7 @@
         <v>81</v>
       </c>
       <c r="E455" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F455">
@@ -35193,11 +35421,12 @@
       <c r="N455" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O455" s="4" t="s">
-        <v>29</v>
+      <c r="O455" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field13</v>
       </c>
       <c r="P455" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q455" s="4" t="s">
@@ -35236,7 +35465,7 @@
         <v>81</v>
       </c>
       <c r="E456" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F456">
@@ -35266,11 +35495,12 @@
       <c r="N456" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O456" s="4" t="s">
-        <v>29</v>
+      <c r="O456" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field13</v>
       </c>
       <c r="P456" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q456" s="4" t="s">
@@ -35309,7 +35539,7 @@
         <v>81</v>
       </c>
       <c r="E457" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F457">
@@ -35339,11 +35569,12 @@
       <c r="N457" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O457" s="4" t="s">
-        <v>29</v>
+      <c r="O457" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field13</v>
       </c>
       <c r="P457" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q457" s="4" t="s">
@@ -35382,7 +35613,7 @@
         <v>81</v>
       </c>
       <c r="E458" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F458">
@@ -35412,11 +35643,12 @@
       <c r="N458" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O458" s="4" t="s">
-        <v>29</v>
+      <c r="O458" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field13</v>
       </c>
       <c r="P458" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q458" s="4" t="s">
@@ -35455,7 +35687,7 @@
         <v>81</v>
       </c>
       <c r="E459" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F459">
@@ -35485,11 +35717,12 @@
       <c r="N459" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O459" s="4" t="s">
-        <v>29</v>
+      <c r="O459" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field13</v>
       </c>
       <c r="P459" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q459" s="4" t="s">
@@ -35528,7 +35761,7 @@
         <v>81</v>
       </c>
       <c r="E460" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F460">
@@ -35558,11 +35791,12 @@
       <c r="N460" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O460" s="4" t="s">
-        <v>29</v>
+      <c r="O460" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field13</v>
       </c>
       <c r="P460" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q460" s="4" t="s">
@@ -35601,7 +35835,7 @@
         <v>81</v>
       </c>
       <c r="E461" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F461">
@@ -35631,11 +35865,12 @@
       <c r="N461" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O461" s="4" t="s">
-        <v>29</v>
+      <c r="O461" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field13</v>
       </c>
       <c r="P461" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q461" s="4" t="s">
@@ -35674,7 +35909,7 @@
         <v>81</v>
       </c>
       <c r="E462" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F462">
@@ -35704,11 +35939,12 @@
       <c r="N462" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O462" s="4" t="s">
-        <v>29</v>
+      <c r="O462" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field13</v>
       </c>
       <c r="P462" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q462" s="4" t="s">
@@ -35747,7 +35983,7 @@
         <v>81</v>
       </c>
       <c r="E463" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F463">
@@ -35777,11 +36013,12 @@
       <c r="N463" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O463" s="4" t="s">
-        <v>29</v>
+      <c r="O463" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field13</v>
       </c>
       <c r="P463" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q463" s="4" t="s">
@@ -35820,7 +36057,7 @@
         <v>81</v>
       </c>
       <c r="E464" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F464">
@@ -35850,11 +36087,12 @@
       <c r="N464" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O464" s="4" t="s">
-        <v>29</v>
+      <c r="O464" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field13</v>
       </c>
       <c r="P464" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q464" s="4" t="s">
@@ -35893,7 +36131,7 @@
         <v>81</v>
       </c>
       <c r="E465" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F465" s="7">
@@ -35923,11 +36161,12 @@
       <c r="N465" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O465" s="4" t="s">
-        <v>29</v>
+      <c r="O465" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field13</v>
       </c>
       <c r="P465" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q465" s="4" t="s">
@@ -35966,7 +36205,7 @@
         <v>82</v>
       </c>
       <c r="E466" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F466">
@@ -35996,11 +36235,12 @@
       <c r="N466" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O466" s="4" t="s">
-        <v>29</v>
+      <c r="O466" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field14</v>
       </c>
       <c r="P466" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q466" s="4" t="s">
@@ -36039,7 +36279,7 @@
         <v>82</v>
       </c>
       <c r="E467" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F467">
@@ -36069,11 +36309,12 @@
       <c r="N467" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O467" s="4" t="s">
-        <v>29</v>
+      <c r="O467" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field14</v>
       </c>
       <c r="P467" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q467" s="4" t="s">
@@ -36112,7 +36353,7 @@
         <v>82</v>
       </c>
       <c r="E468" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F468">
@@ -36142,11 +36383,12 @@
       <c r="N468" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O468" s="4" t="s">
-        <v>29</v>
+      <c r="O468" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field14</v>
       </c>
       <c r="P468" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q468" s="4" t="s">
@@ -36185,7 +36427,7 @@
         <v>82</v>
       </c>
       <c r="E469" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F469">
@@ -36215,11 +36457,12 @@
       <c r="N469" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O469" s="4" t="s">
-        <v>29</v>
+      <c r="O469" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field14</v>
       </c>
       <c r="P469" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q469" s="4" t="s">
@@ -36258,7 +36501,7 @@
         <v>82</v>
       </c>
       <c r="E470" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F470">
@@ -36288,11 +36531,12 @@
       <c r="N470" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O470" s="4" t="s">
-        <v>29</v>
+      <c r="O470" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field14</v>
       </c>
       <c r="P470" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q470" s="4" t="s">
@@ -36331,7 +36575,7 @@
         <v>82</v>
       </c>
       <c r="E471" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F471">
@@ -36361,11 +36605,12 @@
       <c r="N471" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O471" s="4" t="s">
-        <v>29</v>
+      <c r="O471" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field14</v>
       </c>
       <c r="P471" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q471" s="4" t="s">
@@ -36404,7 +36649,7 @@
         <v>82</v>
       </c>
       <c r="E472" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F472">
@@ -36434,11 +36679,12 @@
       <c r="N472" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O472" s="4" t="s">
-        <v>29</v>
+      <c r="O472" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field14</v>
       </c>
       <c r="P472" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q472" s="4" t="s">
@@ -36477,7 +36723,7 @@
         <v>82</v>
       </c>
       <c r="E473" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F473">
@@ -36507,11 +36753,12 @@
       <c r="N473" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O473" s="4" t="s">
-        <v>29</v>
+      <c r="O473" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field14</v>
       </c>
       <c r="P473" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q473" s="4" t="s">
@@ -36550,7 +36797,7 @@
         <v>82</v>
       </c>
       <c r="E474" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F474">
@@ -36580,11 +36827,12 @@
       <c r="N474" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O474" s="4" t="s">
-        <v>29</v>
+      <c r="O474" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field14</v>
       </c>
       <c r="P474" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q474" s="4" t="s">
@@ -36623,7 +36871,7 @@
         <v>82</v>
       </c>
       <c r="E475" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F475">
@@ -36653,11 +36901,12 @@
       <c r="N475" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O475" s="4" t="s">
-        <v>29</v>
+      <c r="O475" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field14</v>
       </c>
       <c r="P475" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q475" s="4" t="s">
@@ -36696,7 +36945,7 @@
         <v>82</v>
       </c>
       <c r="E476" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F476" s="7">
@@ -36726,11 +36975,12 @@
       <c r="N476" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O476" s="4" t="s">
-        <v>29</v>
+      <c r="O476" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field14</v>
       </c>
       <c r="P476" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q476" s="4" t="s">
@@ -36769,7 +37019,7 @@
         <v>83</v>
       </c>
       <c r="E477" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F477">
@@ -36799,11 +37049,12 @@
       <c r="N477" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O477" s="4" t="s">
-        <v>29</v>
+      <c r="O477" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field15</v>
       </c>
       <c r="P477" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q477" s="4" t="s">
@@ -36842,7 +37093,7 @@
         <v>83</v>
       </c>
       <c r="E478" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F478">
@@ -36872,11 +37123,12 @@
       <c r="N478" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O478" s="4" t="s">
-        <v>29</v>
+      <c r="O478" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field15</v>
       </c>
       <c r="P478" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q478" s="4" t="s">
@@ -36915,7 +37167,7 @@
         <v>83</v>
       </c>
       <c r="E479" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F479">
@@ -36945,11 +37197,12 @@
       <c r="N479" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O479" s="4" t="s">
-        <v>29</v>
+      <c r="O479" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field15</v>
       </c>
       <c r="P479" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q479" s="4" t="s">
@@ -36988,7 +37241,7 @@
         <v>83</v>
       </c>
       <c r="E480" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F480">
@@ -37018,11 +37271,12 @@
       <c r="N480" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O480" s="4" t="s">
-        <v>29</v>
+      <c r="O480" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field15</v>
       </c>
       <c r="P480" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q480" s="4" t="s">
@@ -37061,7 +37315,7 @@
         <v>83</v>
       </c>
       <c r="E481" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F481">
@@ -37091,11 +37345,12 @@
       <c r="N481" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O481" s="4" t="s">
-        <v>29</v>
+      <c r="O481" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field15</v>
       </c>
       <c r="P481" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q481" s="4" t="s">
@@ -37134,7 +37389,7 @@
         <v>83</v>
       </c>
       <c r="E482" s="24" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F482">
@@ -37164,11 +37419,12 @@
       <c r="N482" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O482" s="4" t="s">
-        <v>29</v>
+      <c r="O482" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field15</v>
       </c>
       <c r="P482" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q482" s="4" t="s">
@@ -37207,7 +37463,7 @@
         <v>83</v>
       </c>
       <c r="E483" s="24" t="str">
-        <f t="shared" ref="E483:E501" si="40">CONCATENATE(Q483, "-", B483)</f>
+        <f t="shared" ref="E483:E501" si="44">CONCATENATE(Q483, "-", B483)</f>
         <v>FIELD-44461</v>
       </c>
       <c r="F483">
@@ -37237,11 +37493,12 @@
       <c r="N483" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O483" s="4" t="s">
-        <v>29</v>
+      <c r="O483" s="24" t="str">
+        <f t="shared" si="42"/>
+        <v>field15</v>
       </c>
       <c r="P483" s="4" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>FIELD</v>
       </c>
       <c r="Q483" s="4" t="s">
@@ -37280,7 +37537,7 @@
         <v>83</v>
       </c>
       <c r="E484" s="24" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F484">
@@ -37310,11 +37567,12 @@
       <c r="N484" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O484" s="4" t="s">
-        <v>29</v>
+      <c r="O484" s="24" t="str">
+        <f t="shared" ref="O484:O501" si="45">D484</f>
+        <v>field15</v>
       </c>
       <c r="P484" s="4" t="str">
-        <f t="shared" ref="P484:P501" si="41">Q484</f>
+        <f t="shared" ref="P484:P501" si="46">Q484</f>
         <v>FIELD</v>
       </c>
       <c r="Q484" s="4" t="s">
@@ -37353,7 +37611,7 @@
         <v>83</v>
       </c>
       <c r="E485" s="24" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F485">
@@ -37383,11 +37641,12 @@
       <c r="N485" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O485" s="4" t="s">
-        <v>29</v>
+      <c r="O485" s="24" t="str">
+        <f t="shared" si="45"/>
+        <v>field15</v>
       </c>
       <c r="P485" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>FIELD</v>
       </c>
       <c r="Q485" s="4" t="s">
@@ -37426,7 +37685,7 @@
         <v>83</v>
       </c>
       <c r="E486" s="24" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F486">
@@ -37456,11 +37715,12 @@
       <c r="N486" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O486" s="4" t="s">
-        <v>29</v>
+      <c r="O486" s="24" t="str">
+        <f t="shared" si="45"/>
+        <v>field15</v>
       </c>
       <c r="P486" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>FIELD</v>
       </c>
       <c r="Q486" s="4" t="s">
@@ -37499,7 +37759,7 @@
         <v>83</v>
       </c>
       <c r="E487" s="24" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F487">
@@ -37529,11 +37789,12 @@
       <c r="N487" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O487" s="4" t="s">
-        <v>29</v>
+      <c r="O487" s="24" t="str">
+        <f t="shared" si="45"/>
+        <v>field15</v>
       </c>
       <c r="P487" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>FIELD</v>
       </c>
       <c r="Q487" s="4" t="s">
@@ -37572,7 +37833,7 @@
         <v>83</v>
       </c>
       <c r="E488" s="24" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F488">
@@ -37602,11 +37863,12 @@
       <c r="N488" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O488" s="4" t="s">
-        <v>29</v>
+      <c r="O488" s="24" t="str">
+        <f t="shared" si="45"/>
+        <v>field15</v>
       </c>
       <c r="P488" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>FIELD</v>
       </c>
       <c r="Q488" s="4" t="s">
@@ -37645,7 +37907,7 @@
         <v>83</v>
       </c>
       <c r="E489" s="24" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F489" s="7">
@@ -37675,11 +37937,12 @@
       <c r="N489" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O489" s="4" t="s">
-        <v>29</v>
+      <c r="O489" s="24" t="str">
+        <f t="shared" si="45"/>
+        <v>field15</v>
       </c>
       <c r="P489" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>FIELD</v>
       </c>
       <c r="Q489" s="4" t="s">
@@ -37718,7 +37981,7 @@
         <v>84</v>
       </c>
       <c r="E490" s="24" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F490">
@@ -37748,11 +38011,12 @@
       <c r="N490" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O490" s="4" t="s">
-        <v>29</v>
+      <c r="O490" s="24" t="str">
+        <f t="shared" si="45"/>
+        <v>field16</v>
       </c>
       <c r="P490" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>FIELD</v>
       </c>
       <c r="Q490" s="4" t="s">
@@ -37791,7 +38055,7 @@
         <v>84</v>
       </c>
       <c r="E491" s="24" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F491">
@@ -37821,11 +38085,12 @@
       <c r="N491" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O491" s="4" t="s">
-        <v>29</v>
+      <c r="O491" s="24" t="str">
+        <f t="shared" si="45"/>
+        <v>field16</v>
       </c>
       <c r="P491" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>FIELD</v>
       </c>
       <c r="Q491" s="4" t="s">
@@ -37864,7 +38129,7 @@
         <v>84</v>
       </c>
       <c r="E492" s="24" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F492">
@@ -37894,11 +38159,12 @@
       <c r="N492" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O492" s="4" t="s">
-        <v>29</v>
+      <c r="O492" s="24" t="str">
+        <f t="shared" si="45"/>
+        <v>field16</v>
       </c>
       <c r="P492" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>FIELD</v>
       </c>
       <c r="Q492" s="4" t="s">
@@ -37937,7 +38203,7 @@
         <v>84</v>
       </c>
       <c r="E493" s="24" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F493">
@@ -37967,11 +38233,12 @@
       <c r="N493" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O493" s="4" t="s">
-        <v>29</v>
+      <c r="O493" s="24" t="str">
+        <f t="shared" si="45"/>
+        <v>field16</v>
       </c>
       <c r="P493" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>FIELD</v>
       </c>
       <c r="Q493" s="4" t="s">
@@ -38010,7 +38277,7 @@
         <v>84</v>
       </c>
       <c r="E494" s="24" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F494">
@@ -38040,11 +38307,12 @@
       <c r="N494" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O494" s="4" t="s">
-        <v>29</v>
+      <c r="O494" s="24" t="str">
+        <f t="shared" si="45"/>
+        <v>field16</v>
       </c>
       <c r="P494" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>FIELD</v>
       </c>
       <c r="Q494" s="4" t="s">
@@ -38083,7 +38351,7 @@
         <v>84</v>
       </c>
       <c r="E495" s="24" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F495">
@@ -38113,11 +38381,12 @@
       <c r="N495" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O495" s="4" t="s">
-        <v>29</v>
+      <c r="O495" s="24" t="str">
+        <f t="shared" si="45"/>
+        <v>field16</v>
       </c>
       <c r="P495" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>FIELD</v>
       </c>
       <c r="Q495" s="4" t="s">
@@ -38156,7 +38425,7 @@
         <v>84</v>
       </c>
       <c r="E496" s="24" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F496">
@@ -38186,11 +38455,12 @@
       <c r="N496" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O496" s="4" t="s">
-        <v>29</v>
+      <c r="O496" s="24" t="str">
+        <f t="shared" si="45"/>
+        <v>field16</v>
       </c>
       <c r="P496" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>FIELD</v>
       </c>
       <c r="Q496" s="4" t="s">
@@ -38229,7 +38499,7 @@
         <v>84</v>
       </c>
       <c r="E497" s="24" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F497">
@@ -38259,11 +38529,12 @@
       <c r="N497" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O497" s="4" t="s">
-        <v>29</v>
+      <c r="O497" s="24" t="str">
+        <f t="shared" si="45"/>
+        <v>field16</v>
       </c>
       <c r="P497" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>FIELD</v>
       </c>
       <c r="Q497" s="4" t="s">
@@ -38302,7 +38573,7 @@
         <v>84</v>
       </c>
       <c r="E498" s="24" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F498">
@@ -38332,11 +38603,12 @@
       <c r="N498" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O498" s="4" t="s">
-        <v>29</v>
+      <c r="O498" s="24" t="str">
+        <f t="shared" si="45"/>
+        <v>field16</v>
       </c>
       <c r="P498" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>FIELD</v>
       </c>
       <c r="Q498" s="4" t="s">
@@ -38375,7 +38647,7 @@
         <v>84</v>
       </c>
       <c r="E499" s="24" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F499">
@@ -38405,11 +38677,12 @@
       <c r="N499" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O499" s="4" t="s">
-        <v>29</v>
+      <c r="O499" s="24" t="str">
+        <f t="shared" si="45"/>
+        <v>field16</v>
       </c>
       <c r="P499" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>FIELD</v>
       </c>
       <c r="Q499" s="4" t="s">
@@ -38448,7 +38721,7 @@
         <v>84</v>
       </c>
       <c r="E500" s="24" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F500">
@@ -38478,11 +38751,12 @@
       <c r="N500" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O500" s="4" t="s">
-        <v>29</v>
+      <c r="O500" s="24" t="str">
+        <f t="shared" si="45"/>
+        <v>field16</v>
       </c>
       <c r="P500" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>FIELD</v>
       </c>
       <c r="Q500" s="4" t="s">
@@ -38521,7 +38795,7 @@
         <v>84</v>
       </c>
       <c r="E501" s="24" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>FIELD-44461</v>
       </c>
       <c r="F501">
@@ -38551,11 +38825,12 @@
       <c r="N501" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O501" s="4" t="s">
-        <v>29</v>
+      <c r="O501" s="24" t="str">
+        <f t="shared" si="45"/>
+        <v>field16</v>
       </c>
       <c r="P501" s="4" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" si="46"/>
         <v>FIELD</v>
       </c>
       <c r="Q501" s="4" t="s">
